--- a/public/file/format-import-part(system-sto).xlsx
+++ b/public/file/format-import-part(system-sto).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\system-sto-kbi\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDC3792-F6A5-4833-B676-ED1E5C4C8CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A7673-A300-4C75-97C5-67D3337E7ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{235D7ECB-1AB5-47C9-9C87-335BE7A2122F}"/>
   </bookViews>
@@ -60,10 +60,10 @@
     <t>type_pkg</t>
   </si>
   <si>
-    <t>qty_pkg</t>
-  </si>
-  <si>
     <t>kategori</t>
+  </si>
+  <si>
+    <t>qty_kanban</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -503,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">

--- a/public/file/format-import-part(system-sto).xlsx
+++ b/public/file/format-import-part(system-sto).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\system-sto-kbi\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A7673-A300-4C75-97C5-67D3337E7ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA6B5B-E35E-46A2-AD39-97AFFA62B1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{235D7ECB-1AB5-47C9-9C87-335BE7A2122F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>customer</t>
   </si>
@@ -64,6 +64,33 @@
   </si>
   <si>
     <t>qty_kanban</t>
+  </si>
+  <si>
+    <t>501093EXP</t>
+  </si>
+  <si>
+    <t>TANK ASSY , RESERVE</t>
+  </si>
+  <si>
+    <t>19100-62A-Y000</t>
+  </si>
+  <si>
+    <t>ADM-KAP</t>
+  </si>
+  <si>
+    <t>Finished Good</t>
+  </si>
+  <si>
+    <t>KBI 1</t>
+  </si>
+  <si>
+    <t>Area Rak A (A1-A25)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>FG-28</t>
   </si>
 </sst>
 </file>
@@ -128,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -139,7 +166,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B65D39-E4F5-41EC-A577-54771F0AEB14}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,378 +533,39 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/file/format-import-part(system-sto).xlsx
+++ b/public/file/format-import-part(system-sto).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\system-sto-kbi\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA6B5B-E35E-46A2-AD39-97AFFA62B1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5858A8A-9F13-4E8E-86BE-745C154AD051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{235D7ECB-1AB5-47C9-9C87-335BE7A2122F}"/>
   </bookViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B65D39-E4F5-41EC-A577-54771F0AEB14}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/public/file/format-import-part(system-sto).xlsx
+++ b/public/file/format-import-part(system-sto).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\system-sto-kbi\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5858A8A-9F13-4E8E-86BE-745C154AD051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FA6650-40A1-4614-A55A-6C4687518F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{235D7ECB-1AB5-47C9-9C87-335BE7A2122F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>customer</t>
   </si>
@@ -64,33 +64,6 @@
   </si>
   <si>
     <t>qty_kanban</t>
-  </si>
-  <si>
-    <t>501093EXP</t>
-  </si>
-  <si>
-    <t>TANK ASSY , RESERVE</t>
-  </si>
-  <si>
-    <t>19100-62A-Y000</t>
-  </si>
-  <si>
-    <t>ADM-KAP</t>
-  </si>
-  <si>
-    <t>Finished Good</t>
-  </si>
-  <si>
-    <t>KBI 1</t>
-  </si>
-  <si>
-    <t>Area Rak A (A1-A25)</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>FG-28</t>
   </si>
 </sst>
 </file>
@@ -114,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -163,9 +142,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +463,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,44 +505,24 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2">
-        <v>9</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
